--- a/gcs_daten.xlsx
+++ b/gcs_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xenia Kobeleva\Dropbox\Beuth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE40A78-D4B6-431F-9B4A-3BE2144E24FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5907075-91C4-4994-B0D5-0974D49170E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1390" yWindow="1720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>pid</t>
   </si>
@@ -37,28 +37,55 @@
     <t>gcs_motorisch</t>
   </si>
   <si>
+    <t>363632</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2525252</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>3636365</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>3636463</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2525252</t>
-  </si>
-  <si>
-    <t>3636365</t>
-  </si>
-  <si>
     <t>28374467</t>
+  </si>
+  <si>
+    <t>55555</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>263683</t>
+  </si>
+  <si>
+    <t>44444</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>111112</t>
+  </si>
+  <si>
+    <t>44445</t>
   </si>
 </sst>
 </file>
@@ -449,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,71 +505,71 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>363632</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>43621</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>363632</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>43631</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>43646</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>43647</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -553,87 +580,220 @@
         <v>43590</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>43639</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>43643</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>43621</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>43624</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43641</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43662</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43669</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43653</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43669</v>
+      </c>
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
-    <sortCondition ref="A2:A10"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gcs_daten.xlsx
+++ b/gcs_daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xenia Kobeleva\Dropbox\Beuth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5907075-91C4-4994-B0D5-0974D49170E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1072B2-B8F9-41BA-8354-3DE52CB04ACE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>pid</t>
   </si>
@@ -86,14 +86,24 @@
   </si>
   <si>
     <t>44445</t>
+  </si>
+  <si>
+    <t>4747573</t>
+  </si>
+  <si>
+    <t>666666</t>
+  </si>
+  <si>
+    <t>zeit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -132,12 +142,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -476,43 +490,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>43621</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2" s="4">
+        <v>0.3125</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -520,50 +538,59 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>43631</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3" s="4">
+        <v>0.35416666666666702</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>43646</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C4" s="4">
+        <v>0.39583333333333298</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>43647</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C5" s="4">
+        <v>0.4375</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -571,67 +598,79 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>43590</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="C6" s="4">
+        <v>0.47916666666666702</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>43639</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
+      <c r="C7" s="4">
+        <v>0.52083333333333304</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>43643</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
+      <c r="C8" s="4">
+        <v>0.5625</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>43621</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
+      <c r="C9" s="4">
+        <v>0.60416666666666696</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -639,16 +678,19 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>43624</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
+      <c r="C10" s="4">
+        <v>0.64583333333333304</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -656,144 +698,232 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>43641</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
+      <c r="C11" s="4">
+        <v>0.6875</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>43662</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
+      <c r="C12" s="4">
+        <v>0.72916666666666696</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>43669</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
+      <c r="C13" s="4">
+        <v>0.77083333333333304</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>43653</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
+      <c r="C14" s="4">
+        <v>0.8125</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>43661</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
+      <c r="C15" s="4">
+        <v>0.85416666666666696</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>43661</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
+      <c r="C16" s="4">
+        <v>0.89583333333333304</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>43661</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>43669</v>
       </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
+      <c r="C18" s="4">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43648</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.0208333333333299</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43668</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.0625</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43669</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.1041666666666701</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gcs_daten.xlsx
+++ b/gcs_daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xenia Kobeleva\Dropbox\Beuth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1072B2-B8F9-41BA-8354-3DE52CB04ACE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A781CB-9EBD-416D-9EB7-B13A712A2EBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>pid</t>
   </si>
@@ -103,7 +103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -148,10 +148,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,93 +564,93 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>43646</v>
+        <v>43651</v>
       </c>
       <c r="C4" s="4">
-        <v>0.39583333333333298</v>
+        <v>0.3125</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="C5" s="4">
-        <v>0.4375</v>
+        <v>0.35416666666666702</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="F5">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>43590</v>
+        <v>43646</v>
       </c>
       <c r="C6" s="4">
-        <v>0.47916666666666702</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>43639</v>
+        <v>43647</v>
       </c>
       <c r="C7" s="4">
-        <v>0.52083333333333304</v>
+        <v>0.4375</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>43643</v>
+        <v>43590</v>
       </c>
       <c r="C8" s="4">
-        <v>0.5625</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -659,98 +659,98 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>43621</v>
+        <v>43639</v>
       </c>
       <c r="C9" s="4">
-        <v>0.60416666666666696</v>
+        <v>0.52083333333333304</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>43624</v>
+        <v>43643</v>
       </c>
       <c r="C10" s="4">
-        <v>0.64583333333333304</v>
+        <v>0.5625</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>43641</v>
+        <v>43621</v>
       </c>
       <c r="C11" s="4">
-        <v>0.6875</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>43662</v>
+        <v>43624</v>
       </c>
       <c r="C12" s="4">
-        <v>0.72916666666666696</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>43669</v>
+        <v>43641</v>
       </c>
       <c r="C13" s="4">
-        <v>0.77083333333333304</v>
+        <v>0.6875</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -764,33 +764,33 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>43653</v>
+        <v>43662</v>
       </c>
       <c r="C14" s="4">
-        <v>0.8125</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>43661</v>
+        <v>43669</v>
       </c>
       <c r="C15" s="4">
-        <v>0.85416666666666696</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -804,19 +804,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>43661</v>
+        <v>43653</v>
       </c>
       <c r="C16" s="4">
-        <v>0.89583333333333304</v>
+        <v>0.8125</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -824,33 +824,33 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>43661</v>
       </c>
       <c r="C17" s="4">
-        <v>0.9375</v>
+        <v>0.85416666666666696</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>43669</v>
+        <v>43661</v>
       </c>
       <c r="C18" s="4">
-        <v>0.97916666666666696</v>
+        <v>0.89583333333333304</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -864,33 +864,33 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>43648</v>
+        <v>43661</v>
       </c>
       <c r="C19" s="4">
-        <v>1.0208333333333299</v>
+        <v>0.9375</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>43668</v>
+        <v>43669</v>
       </c>
       <c r="C20" s="4">
-        <v>1.0625</v>
+        <v>0.97916666666666696</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -899,26 +899,66 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43648</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.0208333333333299</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43668</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.0625</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B23" s="2">
         <v>43669</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C23" s="4">
         <v>1.1041666666666701</v>
       </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>10</v>
       </c>
     </row>
